--- a/_INTERPOLATION/area1_Tr_J.xlsx
+++ b/_INTERPOLATION/area1_Tr_J.xlsx
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8660,7 +8660,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11292,7 +11292,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12108,7 +12108,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12708,7 +12708,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -13112,7 +13112,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -14240,7 +14240,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -14340,7 +14340,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -14444,7 +14444,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -14544,7 +14544,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -17084,7 +17084,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17184,7 +17184,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18604,7 +18604,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18812,7 +18812,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -19008,7 +19008,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -19112,7 +19112,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -19312,7 +19312,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -19820,7 +19820,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20128,7 +20128,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -20640,7 +20640,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -20744,7 +20744,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -21048,7 +21048,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -21760,7 +21760,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -21864,7 +21864,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -22464,7 +22464,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -22872,7 +22872,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -23072,7 +23072,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -23680,7 +23680,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -23780,7 +23780,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -24084,7 +24084,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -24180,7 +24180,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -24380,7 +24380,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -24480,7 +24480,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -24580,7 +24580,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -24684,7 +24684,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -24780,7 +24780,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -24884,7 +24884,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -24984,7 +24984,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -25084,7 +25084,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -25184,7 +25184,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -25384,7 +25384,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -25588,7 +25588,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -25900,7 +25900,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -26000,7 +26000,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -26300,7 +26300,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -26704,7 +26704,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -26808,7 +26808,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -26912,7 +26912,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -27012,7 +27012,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -27212,7 +27212,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -27512,7 +27512,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -27816,7 +27816,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -28120,7 +28120,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -28324,7 +28324,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -28932,7 +28932,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -29032,7 +29032,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -29236,7 +29236,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -29544,7 +29544,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -29744,7 +29744,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -29948,7 +29948,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -30148,7 +30148,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -30248,7 +30248,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -30348,7 +30348,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -30448,7 +30448,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -30548,7 +30548,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -30648,7 +30648,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
